--- a/data_handler/config_calc_amount(India)/2-statistic_config-type 3days.xlsx
+++ b/data_handler/config_calc_amount(India)/2-statistic_config-type 3days.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20369"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20370"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF9BF187-8306-46CD-9149-4542B0C20EAE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D481181-4FCF-432B-8921-5645BCB9B9F6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="759" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -763,7 +763,7 @@
       <sheetData sheetId="1">
         <row r="2">
           <cell r="C2">
-            <v>44208</v>
+            <v>44221</v>
           </cell>
         </row>
       </sheetData>
@@ -1341,7 +1341,7 @@
       </c>
       <c r="C2" s="33">
         <f ca="1">TODAY()</f>
-        <v>44208</v>
+        <v>44221</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>56</v>
@@ -1914,7 +1914,7 @@
       </c>
       <c r="B6" s="44" t="str">
         <f>TEXT('[1]2.time process'!$C$2-1-5*3,"YYYY/mm/dd")</f>
-        <v>2020/12/27</v>
+        <v>2021/01/09</v>
       </c>
       <c r="C6" s="42" t="s">
         <v>16</v>
@@ -1929,7 +1929,7 @@
       </c>
       <c r="B7" s="44" t="str">
         <f>TEXT('[1]2.time process'!$C$2-1-4*3,"YYYY/mm/dd")</f>
-        <v>2020/12/30</v>
+        <v>2021/01/12</v>
       </c>
       <c r="C7" s="42" t="s">
         <v>16</v>
@@ -1944,7 +1944,7 @@
       </c>
       <c r="B8" s="44" t="str">
         <f>TEXT('[1]2.time process'!$C$2-1-3*3,"YYYY/mm/dd")</f>
-        <v>2021/01/02</v>
+        <v>2021/01/15</v>
       </c>
       <c r="C8" s="42" t="s">
         <v>16</v>
@@ -1959,7 +1959,7 @@
       </c>
       <c r="B9" s="44" t="str">
         <f>TEXT('[1]2.time process'!$C$2-1-2*3,"YYYY/mm/dd")</f>
-        <v>2021/01/05</v>
+        <v>2021/01/18</v>
       </c>
       <c r="C9" s="42" t="s">
         <v>16</v>
@@ -1974,7 +1974,7 @@
       </c>
       <c r="B10" s="44" t="str">
         <f>TEXT('[1]2.time process'!$C$2-1-1*3,"YYYY/mm/dd")</f>
-        <v>2021/01/08</v>
+        <v>2021/01/21</v>
       </c>
       <c r="C10" s="42" t="s">
         <v>16</v>
@@ -1989,7 +1989,7 @@
       </c>
       <c r="B11" s="44" t="str">
         <f>TEXT('[1]2.time process'!$C$2-1,"YYYY/mm/dd")</f>
-        <v>2021/01/11</v>
+        <v>2021/01/24</v>
       </c>
       <c r="C11" s="42" t="s">
         <v>16</v>
